--- a/sstool-poi-expand/src/main/resources/xlsx/pageforeach_temp.xlsx
+++ b/sstool-poi-expand/src/main/resources/xlsx/pageforeach_temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\sstool\sstool-poi-expand\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375D4C1-FEBD-4D65-A9CD-E4E531F5780C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601F3B3-B70D-4BF7-AE9C-811228743C02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -34,16 +34,6 @@
   </si>
   <si>
     <t>代号</t>
-  </si>
-  <si>
-    <t>${detail.qty}</t>
-  </si>
-  <si>
-    <t>${detail.user}</t>
-  </si>
-  <si>
-    <t>${detail.name}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>用户姓名${model.name}</t>
@@ -105,7 +95,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>#each ${model}</t>
+    <t>#each ${model} mergeRegion=0,0,0,1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#each ${detail} mergeRegion=0,0,0,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +597,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -620,7 +614,7 @@
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,43 +622,43 @@
     </row>
     <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,23 +675,19 @@
     </row>
     <row r="15" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +695,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
